--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,10 +131,10 @@
     <t>E1</t>
   </si>
   <si>
-    <t>ODP-KDL-FAC/035</t>
-  </si>
-  <si>
-    <t>ODP-KDL-FAC/036</t>
+    <t>ODP-KDL-FAC/038</t>
+  </si>
+  <si>
+    <t>ODP-KDL-FAC/039</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
